--- a/InputData/bldgs/CL/Component Lifetime.xlsx
+++ b/InputData/bldgs/CL/Component Lifetime.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\CL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="23955" windowHeight="11565"/>
   </bookViews>
@@ -13,12 +18,12 @@
     <sheet name="other components" sheetId="6" r:id="rId4"/>
     <sheet name="CL" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="101">
   <si>
     <t>Lifetime (years)</t>
   </si>
@@ -293,9 +298,6 @@
     <t>since they are unaffected by envelope (whereas envelope affects "heating" and "cooling and ventilation"</t>
   </si>
   <si>
-    <t>Building Component</t>
-  </si>
-  <si>
     <t>heating</t>
   </si>
   <si>
@@ -311,13 +313,25 @@
     <t>other component</t>
   </si>
   <si>
-    <t>Lifetime (yr)</t>
+    <t>urban residential</t>
+  </si>
+  <si>
+    <t>rural residential</t>
+  </si>
+  <si>
+    <t>commercial</t>
+  </si>
+  <si>
+    <t>For the U.S. model, we use the same component lifetimes across building types.</t>
+  </si>
+  <si>
+    <t>Building Component (years)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -447,6 +461,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -494,7 +511,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -529,7 +546,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -738,7 +755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -867,6 +884,11 @@
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1488,52 +1510,86 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>91</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>92</v>
       </c>
       <c r="B2" s="13">
         <f>'HUD Appendix C Data'!B11</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="13">
+        <f>$B2</f>
+        <v>19</v>
+      </c>
+      <c r="D2" s="13">
+        <f>$B2</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="13">
         <f>'HUD Appendix C Data'!B20</f>
         <v>15.833333333333334</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="13">
+        <f t="shared" ref="C3:D7" si="0">$B3</f>
+        <v>15.833333333333334</v>
+      </c>
+      <c r="D3" s="13">
+        <f t="shared" si="0"/>
+        <v>15.833333333333334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="13">
         <f>'HUD Appendix C Data'!B34</f>
         <v>51.81818181818182</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="13">
+        <f t="shared" si="0"/>
+        <v>51.81818181818182</v>
+      </c>
+      <c r="D4" s="13">
+        <f t="shared" si="0"/>
+        <v>51.81818181818182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>87</v>
       </c>
@@ -1541,27 +1597,52 @@
         <f>lighting!D4</f>
         <v>9.1324200913242013</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="13">
+        <f t="shared" si="0"/>
+        <v>9.1324200913242013</v>
+      </c>
+      <c r="D5" s="13">
+        <f t="shared" si="0"/>
+        <v>9.1324200913242013</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="13">
         <f>'HUD Appendix C Data'!B52</f>
         <v>13.533333333333333</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="13">
+        <f t="shared" si="0"/>
+        <v>13.533333333333333</v>
+      </c>
+      <c r="D6" s="13">
+        <f t="shared" si="0"/>
+        <v>13.533333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="13">
         <f>'other components'!C9</f>
         <v>15.4</v>
       </c>
+      <c r="C7" s="13">
+        <f t="shared" si="0"/>
+        <v>15.4</v>
+      </c>
+      <c r="D7" s="13">
+        <f t="shared" si="0"/>
+        <v>15.4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1818,13 +1899,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D94F66C-A903-4CD8-A3D0-B011824D7B58}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C00F067-B33B-412F-9EB2-AD5477677643}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6D611D9-1F03-4BD5-A09C-DACCA7E79A73}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBA788BB-5F4D-4DA8-9F54-CEACE1A56871}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F80E98D-7065-4A48-A63A-84AD3C3BBC8D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07019376-3D57-4B15-B585-E95C8ED5F0FE}"/>
 </file>